--- a/data/2020-03-24/Senior Cubers Worldwide - Weekly Competition - 2020-03-24.xlsx
+++ b/data/2020-03-24/Senior Cubers Worldwide - Weekly Competition - 2020-03-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484833C9-0107-4651-B984-62D30AD9AAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFAE3A6-329F-4CBF-966D-B8192A251A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
   <si>
     <t>OH</t>
   </si>
@@ -581,6 +581,9 @@
   <si>
     <t>2:25.26</t>
   </si>
+  <si>
+    <t>1:52.40</t>
+  </si>
 </sst>
 </file>
 
@@ -944,14 +947,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="47" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14900,8 +14903,8 @@
   </sheetPr>
   <dimension ref="A1:M1045"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15229,8 +15232,8 @@
       <c r="G10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="77">
-        <v>1.3003472222222223E-3</v>
+      <c r="H10" s="80" t="s">
+        <v>183</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>81</v>
@@ -25748,7 +25751,7 @@
   </sheetPr>
   <dimension ref="A1:M1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -25996,7 +25999,7 @@
       <c r="C8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>182</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -34903,12 +34906,12 @@
       <c r="A1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">

--- a/data/2020-03-24/Senior Cubers Worldwide - Weekly Competition - 2020-03-24.xlsx
+++ b/data/2020-03-24/Senior Cubers Worldwide - Weekly Competition - 2020-03-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFAE3A6-329F-4CBF-966D-B8192A251A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84FA50-6A48-4F08-8EF0-B7C431FCA90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="183">
   <si>
     <t>OH</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>2:52.00</t>
-  </si>
-  <si>
-    <t>2:37.00</t>
   </si>
   <si>
     <t>4:00.33</t>
@@ -950,11 +947,11 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1875,7 +1872,7 @@
         <v>32.590000000000003</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M19" s="25"/>
     </row>
@@ -1914,7 +1911,7 @@
         <v>31.7</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="25"/>
     </row>
@@ -1923,37 +1920,37 @@
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="K21" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M21" s="25"/>
     </row>
@@ -1962,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>22</v>
@@ -1990,7 +1987,7 @@
         <v>32.92</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -2000,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>22</v>
@@ -2028,7 +2025,7 @@
         <v>31.8</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -2051,13 +2048,13 @@
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H24" s="30">
         <v>43.13</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J24" s="30">
         <v>54.38</v>
@@ -2066,7 +2063,7 @@
         <v>48.82</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
@@ -14903,7 +14900,7 @@
   </sheetPr>
   <dimension ref="A1:M1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -15232,8 +15229,8 @@
       <c r="G10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="80" t="s">
-        <v>183</v>
+      <c r="H10" s="78" t="s">
+        <v>182</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>81</v>
@@ -25751,8 +25748,8 @@
   </sheetPr>
   <dimension ref="A1:M1057"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -26000,7 +25997,7 @@
         <v>77</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>87</v>
@@ -26120,26 +26117,26 @@
         <v>124</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="I11" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L11" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="M11" s="27"/>
     </row>
@@ -26154,29 +26151,29 @@
         <v>22</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>148</v>
       </c>
       <c r="M12" s="27"/>
     </row>
@@ -26185,37 +26182,37 @@
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>152</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>153</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="45" t="s">
+      <c r="J13" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="K13" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="L13" s="23" t="s">
         <v>159</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>160</v>
       </c>
       <c r="M13" s="27"/>
     </row>
@@ -26234,16 +26231,16 @@
         <v>48</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>83</v>
@@ -26255,7 +26252,7 @@
         <v>83</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="27"/>
     </row>
@@ -26274,16 +26271,16 @@
         <v>48</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>83</v>
@@ -26295,7 +26292,7 @@
         <v>83</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M15" s="27"/>
     </row>
@@ -34904,14 +34901,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -34933,16 +34930,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="72" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="74" t="s">
         <v>172</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -34950,7 +34947,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>77</v>
@@ -34960,7 +34957,7 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -34978,7 +34975,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -34986,7 +34983,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>77</v>
@@ -34996,7 +34993,7 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -35004,7 +35001,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>19</v>
@@ -35014,7 +35011,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -35032,7 +35029,7 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
